--- a/old/Book1.xlsx
+++ b/old/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="インフレ" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -346,6 +347,44 @@
     <t>pt/sumL</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt+lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv10+INT17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv10+INT10+Item10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv15+INT15+Item15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分母係数</t>
+    <rPh sb="0" eb="2">
+      <t>ブンボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv16/INT20/Item15</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,11 +480,30 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -733,7 +797,7 @@
   <dimension ref="B1:AX22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="E13" sqref="E13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -774,7 +838,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>71</v>
@@ -1097,11 +1161,11 @@
       </c>
       <c r="H4" s="7">
         <f>G4/$C$2</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I4" s="7">
         <f>H4/30</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.222222222222222E-2</v>
       </c>
       <c r="J4" s="6">
         <f>(E4-1)*$C$3</f>
@@ -1137,7 +1201,7 @@
       </c>
       <c r="R4" s="8">
         <f>H4/6</f>
-        <v>0.16666666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S4" s="9">
         <f>MAX(S$3-(S$3-3000)/($C$6*S$2)*$K4,3000)</f>
@@ -1282,11 +1346,11 @@
       </c>
       <c r="H5" s="7">
         <f t="shared" ref="H5:H22" si="22">G5/$C$2</f>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I22" si="23">H5/30</f>
-        <v>0.13333333333333333</v>
+        <v>8.8888888888888878E-2</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J22" si="24">(E5-1)*$C$3</f>
@@ -1322,7 +1386,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R22" si="29">H5/6</f>
-        <v>0.66666666666666663</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" ref="S5:AH20" si="30">MAX(S$3-(S$3-3000)/($C$6*S$2)*$K5,3000)</f>
@@ -1474,11 +1538,11 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="24"/>
@@ -1514,7 +1578,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="29"/>
-        <v>1.6666666666666667</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="30"/>
@@ -1659,11 +1723,11 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="23"/>
-        <v>0.66666666666666663</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="24"/>
@@ -1699,7 +1763,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="29"/>
-        <v>3.3333333333333335</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="30"/>
@@ -1844,11 +1908,11 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="23"/>
-        <v>1.1666666666666667</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="24"/>
@@ -1884,7 +1948,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="29"/>
-        <v>5.833333333333333</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="30"/>
@@ -2029,11 +2093,11 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="22"/>
-        <v>56</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="23"/>
-        <v>1.8666666666666667</v>
+        <v>1.2444444444444445</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="24"/>
@@ -2069,7 +2133,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="29"/>
-        <v>9.3333333333333339</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="30"/>
@@ -2214,11 +2278,11 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="22"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="23"/>
-        <v>2.8</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="24"/>
@@ -2254,7 +2318,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="30"/>
@@ -2399,11 +2463,11 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="22"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="24"/>
@@ -2439,7 +2503,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="30"/>
@@ -2584,11 +2648,11 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="22"/>
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="23"/>
-        <v>5.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="24"/>
@@ -2624,7 +2688,7 @@
       </c>
       <c r="R12" s="8">
         <f t="shared" si="29"/>
-        <v>27.5</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="30"/>
@@ -2769,11 +2833,11 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="22"/>
-        <v>220</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="23"/>
-        <v>7.333333333333333</v>
+        <v>4.8888888888888884</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="24"/>
@@ -2809,7 +2873,7 @@
       </c>
       <c r="R13" s="8">
         <f t="shared" si="29"/>
-        <v>36.666666666666664</v>
+        <v>24.444444444444443</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="30"/>
@@ -2954,11 +3018,11 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="22"/>
-        <v>286</v>
+        <v>190.66666666666666</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="23"/>
-        <v>9.5333333333333332</v>
+        <v>6.3555555555555552</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="24"/>
@@ -2994,7 +3058,7 @@
       </c>
       <c r="R14" s="8">
         <f t="shared" si="29"/>
-        <v>47.666666666666664</v>
+        <v>31.777777777777775</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="30"/>
@@ -3139,11 +3203,11 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="22"/>
-        <v>364</v>
+        <v>242.66666666666666</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="23"/>
-        <v>12.133333333333333</v>
+        <v>8.0888888888888886</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="24"/>
@@ -3179,7 +3243,7 @@
       </c>
       <c r="R15" s="8">
         <f t="shared" si="29"/>
-        <v>60.666666666666664</v>
+        <v>40.444444444444443</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="30"/>
@@ -3311,42 +3375,42 @@
       </c>
     </row>
     <row r="16" spans="2:50" x14ac:dyDescent="0.4">
-      <c r="E16" s="2">
+      <c r="E16" s="12">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="12">
         <v>91000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="12">
         <f t="shared" si="21"/>
         <v>455000</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="13">
         <f t="shared" si="22"/>
-        <v>455</v>
-      </c>
-      <c r="I16" s="3">
+        <v>303.33333333333331</v>
+      </c>
+      <c r="I16" s="13">
         <f t="shared" si="23"/>
-        <v>15.166666666666666</v>
-      </c>
-      <c r="J16" s="2">
+        <v>10.111111111111111</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="12">
         <f t="shared" si="25"/>
         <v>102.5</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="12">
         <f t="shared" si="26"/>
         <v>200</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="14">
         <f t="shared" si="27"/>
         <v>2025</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="14">
         <f t="shared" si="28"/>
         <v>3000</v>
       </c>
@@ -3364,7 +3428,7 @@
       </c>
       <c r="R16" s="8">
         <f t="shared" si="29"/>
-        <v>75.833333333333329</v>
+        <v>50.55555555555555</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="30"/>
@@ -3496,42 +3560,42 @@
       </c>
     </row>
     <row r="17" spans="5:50" x14ac:dyDescent="0.4">
-      <c r="E17" s="2">
+      <c r="E17" s="12">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="12">
         <v>105000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="12">
         <f t="shared" si="21"/>
         <v>560000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="13">
         <f t="shared" si="22"/>
-        <v>560</v>
-      </c>
-      <c r="I17" s="3">
+        <v>373.33333333333331</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="23"/>
-        <v>18.666666666666668</v>
-      </c>
-      <c r="J17" s="2">
+        <v>12.444444444444445</v>
+      </c>
+      <c r="J17" s="12">
         <f t="shared" si="24"/>
         <v>28</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="12">
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="12">
         <f t="shared" si="26"/>
         <v>215</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="14">
         <f t="shared" si="27"/>
         <v>2100</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="14">
         <f t="shared" si="28"/>
         <v>3150</v>
       </c>
@@ -3549,7 +3613,7 @@
       </c>
       <c r="R17" s="8">
         <f t="shared" si="29"/>
-        <v>93.333333333333329</v>
+        <v>62.222222222222221</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="30"/>
@@ -3681,42 +3745,42 @@
       </c>
     </row>
     <row r="18" spans="5:50" x14ac:dyDescent="0.4">
-      <c r="E18" s="2">
+      <c r="E18" s="12">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="12">
         <v>120000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="12">
         <f t="shared" si="21"/>
         <v>680000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="13">
         <f t="shared" si="22"/>
-        <v>680</v>
-      </c>
-      <c r="I18" s="3">
+        <v>453.33333333333331</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="23"/>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="J18" s="2">
+        <v>15.111111111111111</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="12">
         <f t="shared" si="25"/>
         <v>117.5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="12">
         <f t="shared" si="26"/>
         <v>230</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="14">
         <f t="shared" si="27"/>
         <v>2175</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="14">
         <f t="shared" si="28"/>
         <v>3300</v>
       </c>
@@ -3734,7 +3798,7 @@
       </c>
       <c r="R18" s="8">
         <f t="shared" si="29"/>
-        <v>113.33333333333333</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="30"/>
@@ -3879,11 +3943,11 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="22"/>
-        <v>816</v>
+        <v>544</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="23"/>
-        <v>27.2</v>
+        <v>18.133333333333333</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="24"/>
@@ -3919,7 +3983,7 @@
       </c>
       <c r="R19" s="8">
         <f t="shared" si="29"/>
-        <v>136</v>
+        <v>90.666666666666671</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="30"/>
@@ -4051,42 +4115,42 @@
       </c>
     </row>
     <row r="20" spans="5:50" x14ac:dyDescent="0.4">
-      <c r="E20" s="6">
+      <c r="E20" s="12">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="12">
         <v>153000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="12">
         <f t="shared" si="21"/>
         <v>969000</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="13">
         <f t="shared" si="22"/>
-        <v>969</v>
-      </c>
-      <c r="I20" s="7">
+        <v>646</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="23"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="J20" s="6">
+        <v>21.533333333333335</v>
+      </c>
+      <c r="J20" s="12">
         <f t="shared" si="24"/>
         <v>34</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="12">
         <f t="shared" si="25"/>
         <v>132.5</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="12">
         <f t="shared" si="26"/>
         <v>260</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="14">
         <f t="shared" si="27"/>
         <v>2325</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="14">
         <f t="shared" si="28"/>
         <v>3600</v>
       </c>
@@ -4104,7 +4168,7 @@
       </c>
       <c r="R20" s="8">
         <f t="shared" si="29"/>
-        <v>161.5</v>
+        <v>107.66666666666667</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="30"/>
@@ -4236,42 +4300,42 @@
       </c>
     </row>
     <row r="21" spans="5:50" x14ac:dyDescent="0.4">
-      <c r="E21" s="6">
+      <c r="E21" s="12">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="12">
         <v>171000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="12">
         <f t="shared" si="21"/>
         <v>1140000</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="13">
         <f t="shared" si="22"/>
-        <v>1140</v>
-      </c>
-      <c r="I21" s="7">
+        <v>760</v>
+      </c>
+      <c r="I21" s="13">
         <f t="shared" si="23"/>
-        <v>38</v>
-      </c>
-      <c r="J21" s="6">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="J21" s="12">
         <f t="shared" si="24"/>
         <v>36</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="12">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="12">
         <f t="shared" si="26"/>
         <v>275</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="14">
         <f t="shared" si="27"/>
         <v>2400</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="14">
         <f t="shared" si="28"/>
         <v>3750</v>
       </c>
@@ -4289,7 +4353,7 @@
       </c>
       <c r="R21" s="8">
         <f t="shared" si="29"/>
-        <v>190</v>
+        <v>126.66666666666667</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" ref="S21:AH22" si="32">MAX(S$3-(S$3-3000)/($C$6*S$2)*$K21,3000)</f>
@@ -4434,11 +4498,11 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="22"/>
-        <v>1330</v>
+        <v>886.66666666666663</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="23"/>
-        <v>44.333333333333336</v>
+        <v>29.555555555555554</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="24"/>
@@ -4474,7 +4538,7 @@
       </c>
       <c r="R22" s="8">
         <f t="shared" si="29"/>
-        <v>221.66666666666666</v>
+        <v>147.77777777777777</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="32"/>
@@ -4608,7 +4672,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="S4:AH22">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4624,6 +4688,4163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S60"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:S40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="7.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:S2" si="0">E2+1</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>21000</v>
+      </c>
+      <c r="I3" s="9">
+        <v>28000</v>
+      </c>
+      <c r="J3" s="9">
+        <v>36000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>45000</v>
+      </c>
+      <c r="L3" s="9">
+        <v>55000</v>
+      </c>
+      <c r="M3" s="9">
+        <v>66000</v>
+      </c>
+      <c r="N3" s="9">
+        <v>78000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>91000</v>
+      </c>
+      <c r="P3" s="9">
+        <v>105000</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>120000</v>
+      </c>
+      <c r="R3" s="9">
+        <v>136000</v>
+      </c>
+      <c r="S3" s="9">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <f>MAX(D$3-(D$3/(D$2*$B$6)*($C4-400)),3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:S19" si="1">MAX(E$3-(E$3/(E$2*$B$6)*($C4-400)),3000)</f>
+        <v>6000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>66000</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>91000</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>136000</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <f>C4+100</f>
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:S20" si="2">MAX(D$3-(D$3/(D$2*$B$6)*($C5-400)),3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>9166.6666666666661</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>14062.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>19950</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>26833.333333333332</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>34714.285714285717</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>43593.75</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>53472.222222222219</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>64350</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>76227.272727272721</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>89104.166666666672</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>102980.76923076923</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>117857.14285714286</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>133733.33333333334</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>150609.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C60" si="3">C5+100</f>
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>13125</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>18900</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>25666.666666666668</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>33428.571428571428</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>42187.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>51944.444444444445</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>62700</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>74454.545454545456</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>87208.333333333328</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>100961.53846153847</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>115714.28571428571</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>131466.66666666666</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>148218.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>12187.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>17850</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>24500</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>32142.857142857141</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>40781.25</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>50416.666666666664</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>61050</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>72681.818181818177</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>85312.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>98942.307692307688</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>113571.42857142857</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>129200</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>145828.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6666.6666666666661</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>16800</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>23333.333333333336</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>30857.142857142855</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>39375</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>48888.888888888891</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>59400</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>70909.090909090912</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>83416.666666666672</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>96923.076923076922</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>111428.57142857143</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>126933.33333333333</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>143437.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5833.333333333333</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>10312.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>15750</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>22166.666666666668</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>29571.428571428572</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>37968.75</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>47361.111111111109</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>57750</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>69136.363636363632</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>81520.833333333328</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>94903.846153846156</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>109285.71428571429</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>124666.66666666667</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>141046.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9375</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>14700</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>28285.714285714286</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>36562.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>45833.333333333328</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>56100</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>67363.636363636368</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>79625</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>92884.61538461539</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>107142.85714285714</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>122400</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>138656.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4166.6666666666661</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8437.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>13650</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>19833.333333333336</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>35156.25</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>44305.555555555555</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>54450</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>65590.909090909088</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>77729.166666666672</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>90865.38461538461</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>120133.33333333333</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>136265.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3333.333333333333</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>18666.666666666668</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>25714.285714285714</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>33750</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>42777.777777777781</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>52800</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>63818.181818181816</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>75833.333333333328</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>88846.153846153844</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>102857.14285714286</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>117866.66666666666</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>133875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>6562.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>11550</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>24428.571428571428</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>32343.75</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>41250</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>51150</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>62045.454545454544</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>73937.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>86826.923076923078</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>100714.28571428571</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>115600</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>131484.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5625</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>16333.333333333334</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>23142.857142857145</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>30937.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>39722.222222222219</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>60272.727272727272</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>72041.666666666672</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>84807.692307692312</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>98571.42857142858</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>113333.33333333333</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>129093.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4687.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>9450</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>15166.666666666668</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>21857.142857142855</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>29531.25</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>38194.444444444445</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>47850</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>58500</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>70145.833333333343</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>82788.461538461532</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>96428.571428571435</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>111066.66666666666</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>126703.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>20571.428571428572</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>28125</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>36666.666666666664</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>46200</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>56727.272727272728</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>68250</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>80769.230769230766</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>94285.71428571429</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>108800</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>124312.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>7350</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>12833.333333333334</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>19285.714285714286</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>26718.75</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>35138.888888888891</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>44550</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>54954.545454545456</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>66354.166666666672</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>78750</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>92142.857142857145</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>106533.33333333333</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>121921.875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>25312.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>33611.111111111109</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>42900</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>53181.818181818184</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>64458.333333333336</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>76730.769230769234</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>104266.66666666666</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>119531.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>16714.285714285714</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>23906.25</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>32083.333333333332</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>41250</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>51409.090909090912</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>62562.5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>74711.538461538468</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>87857.142857142855</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>102000</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>117140.625</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>9333.3333333333358</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>15428.571428571428</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>30555.555555555555</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>39600</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>49636.363636363632</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>60666.666666666672</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>72692.307692307688</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>85714.28571428571</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>99733.333333333328</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>114750</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:S36" si="4">MAX(D$3-(D$3/(D$2*$B$6)*($C21-400)),3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>3150</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>8166.6666666666679</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>14142.857142857141</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>21093.75</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>29027.777777777777</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>37950</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>47863.636363636368</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>58770.833333333336</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>70673.076923076922</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>83571.42857142858</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>97466.666666666657</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>112359.375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>12857.142857142855</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>19687.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>27500</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>36300</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>46090.909090909088</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>56875</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>68653.846153846156</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>81428.571428571435</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>95200</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>109968.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>5833.3333333333358</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>11571.428571428569</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>18281.25</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>25972.222222222219</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>34650</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>44318.181818181816</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>54979.166666666672</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>66634.615384615376</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>79285.71428571429</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>92933.333333333328</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>107578.125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>4666.6666666666679</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>10285.714285714286</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>16875</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>24444.444444444442</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>33000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>42545.454545454544</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>53083.333333333336</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>64615.38461538461</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>77142.857142857145</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>90666.666666666657</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>105187.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>15468.75</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>22916.666666666664</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>31350</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>40772.727272727272</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>51187.5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>62596.153846153844</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>88400</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>102796.875</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>7714.2857142857138</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>14062.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>21388.888888888891</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>29700</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>39000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>49291.666666666672</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>60576.923076923078</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>72857.14285714287</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>86133.333333333328</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>100406.25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>6428.5714285714275</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>12656.25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>19861.111111111109</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>28050</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>37227.272727272728</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>47395.833333333336</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>58557.692307692305</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>70714.28571428571</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>83866.666666666657</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>98015.625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>5142.8571428571413</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>11250</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>18333.333333333328</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>26400</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>35454.545454545456</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>45500</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>56538.461538461539</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>68571.42857142858</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>81600</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>95625</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>3857.1428571428551</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>9843.75</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>16805.555555555555</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>24750</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>33681.818181818184</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>43604.166666666672</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>54519.230769230766</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>66428.571428571435</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>79333.333333333328</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>93234.375</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>8437.5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>15277.777777777774</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>23100</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>31909.090909090912</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>41708.333333333336</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>52500</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>64285.71428571429</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>77066.666666666657</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>90843.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>3100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>7031.25</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>13750</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>21450</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>30136.36363636364</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>39812.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>50480.769230769227</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>62142.857142857145</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>74800</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>88453.125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>5625</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>12222.222222222219</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>19800</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>28363.636363636368</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>37916.666666666672</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>48461.538461538461</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>60000.000000000007</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>72533.333333333328</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>86062.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>4218.75</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>10694.444444444445</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>18150</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>26590.909090909096</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>36020.833333333336</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>46442.307692307688</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>57857.142857142862</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>70266.666666666657</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>83671.875</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>9166.6666666666642</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>16500</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>24818.181818181823</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>34125</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>44423.076923076922</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>55714.285714285717</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>68000</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>81281.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>7638.8888888888832</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>14850</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>23045.454545454544</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>32229.166666666672</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>42403.846153846149</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>53571.42857142858</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>65733.333333333328</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>78890.625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>6111.1111111111095</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>13200</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>21272.727272727272</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>30333.333333333336</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>40384.615384615383</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>51428.571428571435</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>63466.666666666657</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S37" si="5">MAX(S$3-(S$3/(S$2*$B$6)*($C36-400)),3000)</f>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>3700</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:S52" si="6">MAX(D$3-(D$3/(D$2*$B$6)*($C37-400)),3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>4583.3333333333285</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>11550</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>19500</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>28437.500000000007</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>38365.38461538461</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>49285.71428571429</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>61200</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>74109.375</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>3055.5555555555547</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>9900</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>17727.272727272728</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>26541.666666666672</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>36346.153846153844</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>47142.857142857145</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>58933.333333333328</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>71718.75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>8250</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>15954.545454545456</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>24645.833333333343</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>34326.923076923078</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>45000</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>56666.666666666657</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>69328.125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>6600</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>14181.818181818184</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>22750</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>32307.692307692298</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>42857.14285714287</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>54400</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>66937.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>4100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>4950</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>12409.090909090912</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>20854.166666666672</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>30288.461538461532</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>40714.285714285725</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>52133.333333333328</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>64546.875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>3300</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>10636.363636363632</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>18958.333333333343</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>28269.230769230766</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>38571.42857142858</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>49866.666666666657</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>62156.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>8863.6363636363676</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>17062.5</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>26250</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>36428.571428571435</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>47600</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>59765.625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>7090.9090909090883</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>15166.666666666672</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>24230.76923076922</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>34285.71428571429</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>45333.333333333328</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>57375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>4500</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>5318.1818181818235</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>13270.833333333343</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>22211.538461538454</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>32142.857142857145</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>43066.666666666657</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>54984.375</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>3545.4545454545441</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>11375</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>20192.307692307688</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>40800</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>52593.75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>9479.1666666666715</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>18173.076923076922</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>27857.14285714287</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>38533.333333333328</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>50203.125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>7583.333333333343</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>16153.846153846156</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>25714.285714285725</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>36266.666666666657</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>47812.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>5687.5</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>14134.615384615376</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>23571.42857142858</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>34000</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>45421.875</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>3791.6666666666715</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>12115.38461538461</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>21428.571428571435</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>31733.333333333328</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>43031.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>5100</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>10096.153846153844</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>19285.71428571429</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>29466.666666666657</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>40640.625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>5200</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="D52:S60" si="7">MAX(F$3-(F$3/(F$2*$B$6)*($C52-400)),3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>8076.923076923078</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
+        <v>17142.857142857145</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>27200</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="7"/>
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>5300</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>6057.6923076922976</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
+        <v>15000.000000000015</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>24933.333333333328</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="7"/>
+        <v>35859.375</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="7"/>
+        <v>4038.4615384615317</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
+        <v>12857.14285714287</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>22666.666666666657</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="7"/>
+        <v>33468.75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>5500</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="7"/>
+        <v>10714.285714285725</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="7"/>
+        <v>20400</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="7"/>
+        <v>31078.125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>5600</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="7"/>
+        <v>8571.4285714285797</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="7"/>
+        <v>18133.333333333328</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="7"/>
+        <v>28687.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="7"/>
+        <v>6428.5714285714348</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="7"/>
+        <v>15866.666666666657</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="7"/>
+        <v>26296.875</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>5800</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="7"/>
+        <v>4285.7142857142899</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="7"/>
+        <v>13600</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="7"/>
+        <v>23906.25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>5900</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="7"/>
+        <v>11333.333333333328</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>21515.625</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="7"/>
+        <v>9066.666666666657</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>19125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D4:S60">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5490,7 +9711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -5613,7 +9834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
